--- a/data/hotels_by_city/Dallas/Dallas_shard_584.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_584.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,663 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r558605738-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>55884</t>
+  </si>
+  <si>
+    <t>107033</t>
+  </si>
+  <si>
+    <t>558605738</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>There are better alternatives in the same price range</t>
+  </si>
+  <si>
+    <t>There are four or five low cost hotels with free airport shuttle service.  I have experienced two of them.  Motel 6 was by far the worse of the two.The Internet was poor.  The TV channels were stuck on the alternate language serring (Spanish, descriptive video, no sound at all in some cases).  They did not offer free shampoo/conditioner.  My complaints about the Internet and TV were met with somewhat dismissive attitudes.My pizza leftovers were crawling with ants after a couple of hours.There was no fridge.Stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Garland - Dallas- Northwest Hwy, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>There are four or five low cost hotels with free airport shuttle service.  I have experienced two of them.  Motel 6 was by far the worse of the two.The Internet was poor.  The TV channels were stuck on the alternate language serring (Spanish, descriptive video, no sound at all in some cases).  They did not offer free shampoo/conditioner.  My complaints about the Internet and TV were met with somewhat dismissive attitudes.My pizza leftovers were crawling with ants after a couple of hours.There was no fridge.Stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r502213350-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>502213350</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>$75 for a $30 room</t>
+  </si>
+  <si>
+    <t>Phone didn't work,  took 20 minutes to get warm and then when I was in the shower, it would go from HOT to cold to HOT. Last night my family checked in at 3am we asked for a late check out he 11 is the latest you do and then sent someone at 9am to ask if we were checking out. I am 7 months pregnant and the only reason we came was because my husband's grandma was minutes from dying and he wanted to be here.  We normally stay at the one in Lewisville(10x better) but it was just too far away from what we were needing so we chose this one and when I complain to them she Shrugged her shoulders and said well you should have put a do not disturb sign on your door. And with my having worked in housekeeping before I know that most hotels have a system so that their housekeepers know who's checking out late and who's not.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Phone didn't work,  took 20 minutes to get warm and then when I was in the shower, it would go from HOT to cold to HOT. Last night my family checked in at 3am we asked for a late check out he 11 is the latest you do and then sent someone at 9am to ask if we were checking out. I am 7 months pregnant and the only reason we came was because my husband's grandma was minutes from dying and he wanted to be here.  We normally stay at the one in Lewisville(10x better) but it was just too far away from what we were needing so we chose this one and when I complain to them she Shrugged her shoulders and said well you should have put a do not disturb sign on your door. And with my having worked in housekeeping before I know that most hotels have a system so that their housekeepers know who's checking out late and who's not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r499448260-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>499448260</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>When we checked in there was renovations going on in the lobby area. The lady who helped us was very nice. We walked into our room and noticed it smelled really bad. We thought maybe it was just because it wasn't super clean. The rooms could use a lot of renovations themselves. We noticed there was a dripping sound coming from the bathroom and when we looked it was dripping from the ceiling above the shower. That's when we knew the bad smell was mold. We told them about it and she gave us a new room. It smelled much better, but still had the old motel smell, but no leaking. We got this motel for a cheap price which is why we chose it, but we would never stay there again. They definitely need some renovations done to the whole complex.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we checked in there was renovations going on in the lobby area. The lady who helped us was very nice. We walked into our room and noticed it smelled really bad. We thought maybe it was just because it wasn't super clean. The rooms could use a lot of renovations themselves. We noticed there was a dripping sound coming from the bathroom and when we looked it was dripping from the ceiling above the shower. That's when we knew the bad smell was mold. We told them about it and she gave us a new room. It smelled much better, but still had the old motel smell, but no leaking. We got this motel for a cheap price which is why we chose it, but we would never stay there again. They definitely need some renovations done to the whole complex.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r437940532-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>437940532</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>One Of My Favorite Motels</t>
+  </si>
+  <si>
+    <t>Fast, easy check-in. Friendly employees. Rooms are a little larger than most motels &amp; they are clean. WiFi is free. Also, kids &amp; pets stay for free &amp; there is not a ridiculous pet deposit. Love this motel. Would easily recommend staying here</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r395816032-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>395816032</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Yuck!!!</t>
+  </si>
+  <si>
+    <t>That's the only word I can use to describe this stay. While mine and my husband room was updated, we were unable to take a shower because the knobs to turn on the shower were missing and then the door, looks like it was miss hung and we couldn't shut it properly. Then there was my daughter's room. First, impression. It STUNK to HIGH heaven. The shower knob was extremely hard to turn. They gave it up and decided not taking showers.The room was filthy, cobwebs on the ceiling and garbage in the corners. I mentioned in that front desk and we got a small discount, but when I told the receptionist how bad the conditions of the room, she just said, " Well, we're getting to remodel that room." Like it was nothing big. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>That's the only word I can use to describe this stay. While mine and my husband room was updated, we were unable to take a shower because the knobs to turn on the shower were missing and then the door, looks like it was miss hung and we couldn't shut it properly. Then there was my daughter's room. First, impression. It STUNK to HIGH heaven. The shower knob was extremely hard to turn. They gave it up and decided not taking showers.The room was filthy, cobwebs on the ceiling and garbage in the corners. I mentioned in that front desk and we got a small discount, but when I told the receptionist how bad the conditions of the room, she just said, " Well, we're getting to remodel that room." Like it was nothing big. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r369715939-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>369715939</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Worse room ever!! Do not stay here!</t>
+  </si>
+  <si>
+    <t>Had the worse room I ever experienced in my life. The carpet was so filthy and had this discusting smoke smell, even tough requested a non-smoking room. It was so hard to fall asleep because of it. The bathroom was so dirty and towels still had other people's hair!! The whole walls and bathroom looked like were under construction. I can't believe management is not embarrassed to have this kind of rooms for their guests. Will never recommend or come back again..I don't even think you find a room like this in a third world country. Had no fridge or microwave. JUST HORRIBLE!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r299408085-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>299408085</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>..tom bodett wouldn't stay here!!</t>
+  </si>
+  <si>
+    <t>..this place is horrible!!  Checked in, paid with cash, and the front desk clerk informed us she had no change but to come back in a few minutes and she'd have our change ready.  We called twice and nothing.  Next morning when we check out, we inform the clerk and he flat out refuses to give us our change claiming the clerk had left him a note informing him that she had already given us our change.  What??  Explained the situation, told him we had attempted to contact the clerk twice, to no avail, and still, this guy refused to give us our change.  Requested our receipt and he offered to take the amount of change owed to us off of our bill 'next time'. Had him put it in writing on our receipt and he refused!!  We got tired of arguing with the guy and just left and we wont be staying here again.  The carpet in our room was nasty and had stains, shower had mold and room reeked of smoke.  Lots of shady people loitering in the parking lot. Motel 6 brand really needs to check up on this place.  There's a Denny's right next door and a Starbucks.  Waitress at Denny's told us police are at this motel everyday responding to disturbances.  Do yourself a favor and stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Garland - Dallas- Northwest Hwy, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>..this place is horrible!!  Checked in, paid with cash, and the front desk clerk informed us she had no change but to come back in a few minutes and she'd have our change ready.  We called twice and nothing.  Next morning when we check out, we inform the clerk and he flat out refuses to give us our change claiming the clerk had left him a note informing him that she had already given us our change.  What??  Explained the situation, told him we had attempted to contact the clerk twice, to no avail, and still, this guy refused to give us our change.  Requested our receipt and he offered to take the amount of change owed to us off of our bill 'next time'. Had him put it in writing on our receipt and he refused!!  We got tired of arguing with the guy and just left and we wont be staying here again.  The carpet in our room was nasty and had stains, shower had mold and room reeked of smoke.  Lots of shady people loitering in the parking lot. Motel 6 brand really needs to check up on this place.  There's a Denny's right next door and a Starbucks.  Waitress at Denny's told us police are at this motel everyday responding to disturbances.  Do yourself a favor and stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r289940895-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>289940895</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Dont stay unless you have to</t>
+  </si>
+  <si>
+    <t>First room they gave me the door was ajar, condom wrappers on the floor, the smell of pot and a empty package of blunts on the table. Moved me next door. Should have stayed in the first room because this room smelled so bad it made my mouth taste funny. Left at 3:30 am just to get out of there...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Garland - Dallas- Northwest Hwy, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>First room they gave me the door was ajar, condom wrappers on the floor, the smell of pot and a empty package of blunts on the table. Moved me next door. Should have stayed in the first room because this room smelled so bad it made my mouth taste funny. Left at 3:30 am just to get out of there...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r273161432-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>273161432</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>its true</t>
+  </si>
+  <si>
+    <t>that Dude with glasses his name is David he works at the front desk in the evening, let me tell you this guy is a total tumbs down for a. Customer Service b. he is arrogant c. ego driven d. not even qualified to work at the register in a down town low class convenient store. worse of all he is I assume representing the La Quinta Brand and in this location the owner who is a very nice gentleman and so is the entire staff with the exception of that Late Night Shift Dude that is working against all Hospitality Industry Customer Service Etiquette.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Garland - Dallas- Northwest Hwy, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>that Dude with glasses his name is David he works at the front desk in the evening, let me tell you this guy is a total tumbs down for a. Customer Service b. he is arrogant c. ego driven d. not even qualified to work at the register in a down town low class convenient store. worse of all he is I assume representing the La Quinta Brand and in this location the owner who is a very nice gentleman and so is the entire staff with the exception of that Late Night Shift Dude that is working against all Hospitality Industry Customer Service Etiquette.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r223229850-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>223229850</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Not the place it used to be</t>
+  </si>
+  <si>
+    <t>I travel solo to Garland quite often, and have been staying here for several years.  When this was a LaQuinta, it was kept clean, the desk staff was friendly and helpful.  Since it changed franchises, the quality has diminished.  Front desk routinely leaves me standing while they have private conversations with friends.  Once the clerk had an unrestrained pit bull behind the desk.  What kind of clientele do they serve that the clerk needs to be protected by an attack dog?  The rooms are now dirtyish and appear unkempt. In fact, during my last stay, housekeeping did not clean my room on the second day.  Having said all that, I am a smoker and few hotels have smoking rooms, so I guess I'll return.  This hotel is somewhat better than others nearby.One positive: I have found no bedbugs and the bed is comfortable. I don't use the internet or eat breakfast in the lobby, so I can't comment on the quality of those amenities.  I use the hotel to shower and sleep and am gone from fairly early morning to late evening. I have been disappointed in the deterioration since the switch to Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I travel solo to Garland quite often, and have been staying here for several years.  When this was a LaQuinta, it was kept clean, the desk staff was friendly and helpful.  Since it changed franchises, the quality has diminished.  Front desk routinely leaves me standing while they have private conversations with friends.  Once the clerk had an unrestrained pit bull behind the desk.  What kind of clientele do they serve that the clerk needs to be protected by an attack dog?  The rooms are now dirtyish and appear unkempt. In fact, during my last stay, housekeeping did not clean my room on the second day.  Having said all that, I am a smoker and few hotels have smoking rooms, so I guess I'll return.  This hotel is somewhat better than others nearby.One positive: I have found no bedbugs and the bed is comfortable. I don't use the internet or eat breakfast in the lobby, so I can't comment on the quality of those amenities.  I use the hotel to shower and sleep and am gone from fairly early morning to late evening. I have been disappointed in the deterioration since the switch to Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r211176865-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>211176865</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Great place for drugs and hookers :)</t>
+  </si>
+  <si>
+    <t>No really if your looking for a quick in &amp; out this is the place came here to stay for the night and was approached 3 times by 3 different women all for the price range of $50 bucks each great bargain not to mention all the thugs and drug dealers who stay here,i mean the staff here was nice threw out the whole day and night and they check you in fast too,guess to get you on yor way to the freak show,do not bring your family here I repeat don't! how the staff even works here at night is horrible? I feel sorry for the guys that work here at night hope there pay is worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>No really if your looking for a quick in &amp; out this is the place came here to stay for the night and was approached 3 times by 3 different women all for the price range of $50 bucks each great bargain not to mention all the thugs and drug dealers who stay here,i mean the staff here was nice threw out the whole day and night and they check you in fast too,guess to get you on yor way to the freak show,do not bring your family here I repeat don't! how the staff even works here at night is horrible? I feel sorry for the guys that work here at night hope there pay is worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r208331534-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>208331534</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>Nice very nice</t>
+  </si>
+  <si>
+    <t>Clean rooms, across the parking lot from Denny's and Grandys convenient location, right off LBJ freeway on the frontage rd can't miss it. Nice staff..willing to accommodate. Will stay again for sure. Can get noisy from the highway traffic but that is not the motels fault. Nice pool. Thank you for the great stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r198985453-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>198985453</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>A good night for a gun fight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got to sleep just in time for the thugs in room 147 to start beating a woman called the front desk and the bs continued for another 45 minutes so I beat on the wall the thug got pissed off and invited me to meat him out side when I went out he opened the door but wouldn't come out just talking s#*t and went back in and started calling my room and hanging up I called the desk again and they advised me to call the cops I have a pistol I don't call the cops if you do stay here bring your guns it is rough </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r187278896-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>187278896</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Terrible unsafe Motel</t>
+  </si>
+  <si>
+    <t>Terrible unsafe Motel with many unsavory characters lurking in and around.  Woken up at 2:30 a.m. by groups of guys yelling loudly and heard; shoot him, shoot him! Didn't get back to sleep and checked out ahead of schedule the next morning.  Office personel didn't ask or seem to care why I was checking out so earlier.  Room was also filthy and building was in disrepair.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Garland - Dallas- Northwest Hwy, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Terrible unsafe Motel with many unsavory characters lurking in and around.  Woken up at 2:30 a.m. by groups of guys yelling loudly and heard; shoot him, shoot him! Didn't get back to sleep and checked out ahead of schedule the next morning.  Office personel didn't ask or seem to care why I was checking out so earlier.  Room was also filthy and building was in disrepair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r174487707-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>174487707</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>Bought by Motel 6</t>
+  </si>
+  <si>
+    <t>This LaQuinta has been bought by Motel 6 and is now a dirty,nasty,unsafe motel! I always stayed at this location when it was a LaQuinta and decided to try the new Motel 6 arrangement because it is close to my relatives and pet friendly. I am now looking for anothe motel for next year! There was visible dirt on the bed and the room smelled terrible. I had to change rooms when I returned from my relatives about 11PM to avoid the shirtless,drinking men hovering around my room.There were many ladies in shorts and stilletoes paying for rooms with cash, and folks hanging over the balconies yelling and drinking. It was horrible.Please do not waste your money or put yourself or your family in danger by staying here.It used to be a nice place to stay and I am so sorry Motel 6 bought it. The quality has fallen 100%!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>This LaQuinta has been bought by Motel 6 and is now a dirty,nasty,unsafe motel! I always stayed at this location when it was a LaQuinta and decided to try the new Motel 6 arrangement because it is close to my relatives and pet friendly. I am now looking for anothe motel for next year! There was visible dirt on the bed and the room smelled terrible. I had to change rooms when I returned from my relatives about 11PM to avoid the shirtless,drinking men hovering around my room.There were many ladies in shorts and stilletoes paying for rooms with cash, and folks hanging over the balconies yelling and drinking. It was horrible.Please do not waste your money or put yourself or your family in danger by staying here.It used to be a nice place to stay and I am so sorry Motel 6 bought it. The quality has fallen 100%!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r163662205-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>163662205</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Worth the stay!!!</t>
+  </si>
+  <si>
+    <t>We stayed here because we were offered a military discount.  Room had a king bed which was very comfortable, room was clean and had no foul smells.  Linens were clean, bathroom were clean.  But to me the most important thing going for this La Quinta location is that the A/C was on prior to our arrival.  Our room was already cool and to me that showed they cared about their future guest.  Our vehicle was not bothered, there was a security looking guy wondering the parking lot which helped.  We did not have the breakfast so I cannot comment on it.  Overall I would stay here again and recommend it to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We stayed here because we were offered a military discount.  Room had a king bed which was very comfortable, room was clean and had no foul smells.  Linens were clean, bathroom were clean.  But to me the most important thing going for this La Quinta location is that the A/C was on prior to our arrival.  Our room was already cool and to me that showed they cared about their future guest.  Our vehicle was not bothered, there was a security looking guy wondering the parking lot which helped.  We did not have the breakfast so I cannot comment on it.  Overall I would stay here again and recommend it to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r155195606-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>155195606</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>OK for the price</t>
+  </si>
+  <si>
+    <t>This was about what I expected. The hotel is located next to a busy freeway on a short one=way street, so getting in and out required a little bit of looping around, but nothing too dramatic. The room itself was very quiet, considering the location. Desk clerk said that they had 24 hour security. I didn't stay up all night to check, but all seemed quiet and nobody messed with us, our stuff, or our car. If you read the reviews of other hotels in this area that seems to be an accomplishment. The room was clean, bathroom was clean, and everything that was supposed to work did. Plenty of parking, shower was good, and the king sized bed was VERY comfortable. The continental breakfast was pretty lame, but that wasn't a big deal for us. TV and remote were good. All in all, a decent place to spend the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>This was about what I expected. The hotel is located next to a busy freeway on a short one=way street, so getting in and out required a little bit of looping around, but nothing too dramatic. The room itself was very quiet, considering the location. Desk clerk said that they had 24 hour security. I didn't stay up all night to check, but all seemed quiet and nobody messed with us, our stuff, or our car. If you read the reviews of other hotels in this area that seems to be an accomplishment. The room was clean, bathroom was clean, and everything that was supposed to work did. Plenty of parking, shower was good, and the king sized bed was VERY comfortable. The continental breakfast was pretty lame, but that wasn't a big deal for us. TV and remote were good. All in all, a decent place to spend the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r153854227-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>153854227</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>I always stay at LQ when possible</t>
+  </si>
+  <si>
+    <t>Keep up the great work. Thank you for loving pets. You should advertise on animal planet and support pet shelters. Pet travelers are the most dedicated people and cautious about the rooms, and LOYAL to LQ.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r145673904-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>145673904</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Okay for the night</t>
+  </si>
+  <si>
+    <t>This hotel was nothing to write home about. But it was the only hotel in the area that did not charge extra for pets and wasn't to much of a dive. It was conveniently located next to the highway and Denny's. But as for other restaurants. Nothing else within walking distance.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r144356744-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>144356744</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>They are the best</t>
+  </si>
+  <si>
+    <t>Me and my family have spent every weekend here for the past month and a half  just as a lil get away and it is great. The prices staff and comfort. We tried going somewhere diff this weekend(all so I could watch lifetime) and I am so disappointed! La Quinta is officially our home away from home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r143076092-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>143076092</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>My Stay at LaQuinta</t>
+  </si>
+  <si>
+    <t>I checked in and Diane was very polite and courteous. Once I was settled into the room, I noticed that the phone wasn't working and the bathtub fixture was disconnected from the wall. The sheets had what appeared to be a black marker stain on them. Since it was a double bed I slept in the other bed, no problem.I sprain my index finger trying to kill a cricket (no fault of the hotel)! At checkout I told the lady about the phone and the shower, they already knew as I reported it to Diane the night before. I was compensated for the inconvenience. The staff was very polite and professional. Great customer service, more improvement on the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I checked in and Diane was very polite and courteous. Once I was settled into the room, I noticed that the phone wasn't working and the bathtub fixture was disconnected from the wall. The sheets had what appeared to be a black marker stain on them. Since it was a double bed I slept in the other bed, no problem.I sprain my index finger trying to kill a cricket (no fault of the hotel)! At checkout I told the lady about the phone and the shower, they already knew as I reported it to Diane the night before. I was compensated for the inconvenience. The staff was very polite and professional. Great customer service, more improvement on the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r140090943-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>140090943</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>awesome stay</t>
+  </si>
+  <si>
+    <t>we stayed at the La Quinta in garland tx, and all i have to say it was an awesome experience, the staff was very friendly the room was very clean, we stayed in the courtyard area and it was very peaceful and quiet, i would easily stay again... 2 thumbs up..</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r136760668-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>136760668</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Good hotel for the price</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel twice in the last month and were very pleased both times.  The rooms were clean and the beds were comfortable. The staff was very friendly too. We had very pleasant stays and enjoyed the convenience of being able to walk to the nearby Denny's and Grandy's restaurants, which were located next door to the hotel. The continental breakfast was better than most of them we have had in this hotel price range, with yogurt, bagels, fruit, and waffles available in addition to the usual muffins and cereal....coffee was good too. We also enjoyed having the Wi-Fi available.  We will definitely be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel twice in the last month and were very pleased both times.  The rooms were clean and the beds were comfortable. The staff was very friendly too. We had very pleasant stays and enjoyed the convenience of being able to walk to the nearby Denny's and Grandy's restaurants, which were located next door to the hotel. The continental breakfast was better than most of them we have had in this hotel price range, with yogurt, bagels, fruit, and waffles available in addition to the usual muffins and cereal....coffee was good too. We also enjoyed having the Wi-Fi available.  We will definitely be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r136466756-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>136466756</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>Stay was great</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay and the room attendant cleaned room awesome good job! The staff was friendly as well I look forward to staying with you guys in the future... I do allot of traveling and La Quinta is my choice for any of my stays.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r131107787-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>131107787</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r129333618-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>129333618</t>
+  </si>
+  <si>
+    <t>05/03/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r124866645-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>124866645</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>lack of security</t>
+  </si>
+  <si>
+    <t>We were traveling through with friends on our way to Mardi Gras  and thought we were staying at a good place. When we got up the next morning to load the car on of the windows and been broken out and a tomtom taken as well as some cigars and a lighter. We spent have of the day getting the window replaced so we missed out on some of the activities we had planned. The rooms were clean and the staff nice, but the experience with the window made the staff not good.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r69892254-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>69892254</t>
+  </si>
+  <si>
+    <t>07/06/2010</t>
+  </si>
+  <si>
+    <t>Nice check in staff</t>
+  </si>
+  <si>
+    <t>This motel had clean rooms, a fair continental breakfast ( yogurt, bagels, hard-boiled eggs, cereal, and apples), and a very friendly check-in staff  who went out of their way to say hello to you  and thank you for patronage. The price for the rooms was about 45$ a night, a deal for the dallas area. The hotel was located off of the interstate loop around Dallas, and while not a horrible area, it was not the prettiest either. The hotel is right next to two family-type restaurants and close to gas stations. If you can figure out the roads, a wal- mart is a five minute drive from the area. Keep in mind this motel does not have internal corridors- all rooms are directly accessible to the outside.  A small clean pool is available for use as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This motel had clean rooms, a fair continental breakfast ( yogurt, bagels, hard-boiled eggs, cereal, and apples), and a very friendly check-in staff  who went out of their way to say hello to you  and thank you for patronage. The price for the rooms was about 45$ a night, a deal for the dallas area. The hotel was located off of the interstate loop around Dallas, and while not a horrible area, it was not the prettiest either. The hotel is right next to two family-type restaurants and close to gas stations. If you can figure out the roads, a wal- mart is a five minute drive from the area. Keep in mind this motel does not have internal corridors- all rooms are directly accessible to the outside.  A small clean pool is available for use as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r63099519-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>63099519</t>
+  </si>
+  <si>
+    <t>05/03/2010</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise for the Price</t>
+  </si>
+  <si>
+    <t>A friend and I traveled to Texas for Canton's First Monday Trade Days. We decided we would stay as cheap as we could and booked a room here. We were very surprised at our selection. The place was very nice and clean, the beds were comfortable and the rooms spacious, the staff was nice and helpful. If the location had been closer we would have stayed here multiple nights.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r34621316-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>34621316</t>
+  </si>
+  <si>
+    <t>07/13/2009</t>
+  </si>
+  <si>
+    <t>Lots of things stolen at this hotel!!</t>
+  </si>
+  <si>
+    <t>Please beware if you stay at this hotel.  My daughter went with her FFA group for their annual convention.  She had all her jewelry stolen that was in her bag.  One of the other  rooms had $40 stolen and some clothing.  They put the do not disturb sign up on the door and came back to discover that one bed had been made up and music playing on the radio.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r16928443-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>16928443</t>
+  </si>
+  <si>
+    <t>06/14/2008</t>
+  </si>
+  <si>
+    <t>Decent Hotel for a Good Price</t>
+  </si>
+  <si>
+    <t>La Quinta InnGarland, TX12721 I-635972-271-7581$46.00/nightNo separate charge for pets; cats accepted.Cable TV.  Coffee maker in room; no refrigerator or microwave.  Ice machine in lobby, no on-site laundry.  Free wi-fi connection.  Free breakfast, 7 to 9 am:  toast, bagels, peeled hard boiled eggs, orange juice, coffee, tea, etc.Desk personnel were polite and efficient.  Room was a good size, clean and comfortable.  In the morning we could not get cold water in the bathroom--only hot.  We reported the problem to the desk.  Good wi-fi connection.  I’m not sure the room would be worth the $95/night that is supposed to be the normal rate, but we were certainly happy with it for the price we paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>La Quinta InnGarland, TX12721 I-635972-271-7581$46.00/nightNo separate charge for pets; cats accepted.Cable TV.  Coffee maker in room; no refrigerator or microwave.  Ice machine in lobby, no on-site laundry.  Free wi-fi connection.  Free breakfast, 7 to 9 am:  toast, bagels, peeled hard boiled eggs, orange juice, coffee, tea, etc.Desk personnel were polite and efficient.  Room was a good size, clean and comfortable.  In the morning we could not get cold water in the bathroom--only hot.  We reported the problem to the desk.  Good wi-fi connection.  I’m not sure the room would be worth the $95/night that is supposed to be the normal rate, but we were certainly happy with it for the price we paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r11691332-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>11691332</t>
+  </si>
+  <si>
+    <t>12/19/2007</t>
+  </si>
+  <si>
+    <t>Great price and location in Metro Dallas Area</t>
+  </si>
+  <si>
+    <t>We went to Dallas TX to a wedding of a friend and this hotel turn out to be very well located at the East of Dallas besides the price per night was acceptable.The hotel doesn't have big luxuries, it is thinked for the traveler that doesn't require them. But it has cleand and roomy rooms besides a good breakfast.The attention of the Staff is good, although if one listens something of external noise because the rooms doors are from face to the parking of the guestsAfter all, we have a good stay in this hotel and we recommend it.</t>
+  </si>
+  <si>
+    <t>September 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1305,2068 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>96</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" t="s">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>237</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>244</v>
+      </c>
+      <c r="O30" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" t="s">
+        <v>254</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>255</v>
+      </c>
+      <c r="O32" t="s">
+        <v>237</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_584.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_584.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>George C</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>There are four or five low cost hotels with free airport shuttle service.  I have experienced two of them.  Motel 6 was by far the worse of the two.The Internet was poor.  The TV channels were stuck on the alternate language serring (Spanish, descriptive video, no sound at all in some cases).  They did not offer free shampoo/conditioner.  My complaints about the Internet and TV were met with somewhat dismissive attitudes.My pizza leftovers were crawling with ants after a couple of hours.There was no fridge.Stay elsewhere.More</t>
   </si>
   <si>
+    <t>noeleah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r502213350-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Phone didn't work,  took 20 minutes to get warm and then when I was in the shower, it would go from HOT to cold to HOT. Last night my family checked in at 3am we asked for a late check out he 11 is the latest you do and then sent someone at 9am to ask if we were checking out. I am 7 months pregnant and the only reason we came was because my husband's grandma was minutes from dying and he wanted to be here.  We normally stay at the one in Lewisville(10x better) but it was just too far away from what we were needing so we chose this one and when I complain to them she Shrugged her shoulders and said well you should have put a do not disturb sign on your door. And with my having worked in housekeeping before I know that most hotels have a system so that their housekeepers know who's checking out late and who's not.More</t>
   </si>
   <si>
+    <t>Greenturtle15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r499448260-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>When we checked in there was renovations going on in the lobby area. The lady who helped us was very nice. We walked into our room and noticed it smelled really bad. We thought maybe it was just because it wasn't super clean. The rooms could use a lot of renovations themselves. We noticed there was a dripping sound coming from the bathroom and when we looked it was dripping from the ceiling above the shower. That's when we knew the bad smell was mold. We told them about it and she gave us a new room. It smelled much better, but still had the old motel smell, but no leaking. We got this motel for a cheap price which is why we chose it, but we would never stay there again. They definitely need some renovations done to the whole complex.More</t>
   </si>
   <si>
+    <t>Jeanne M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r437940532-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Desi-Allen-73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r395816032-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>That's the only word I can use to describe this stay. While mine and my husband room was updated, we were unable to take a shower because the knobs to turn on the shower were missing and then the door, looks like it was miss hung and we couldn't shut it properly. Then there was my daughter's room. First, impression. It STUNK to HIGH heaven. The shower knob was extremely hard to turn. They gave it up and decided not taking showers.The room was filthy, cobwebs on the ceiling and garbage in the corners. I mentioned in that front desk and we got a small discount, but when I told the receptionist how bad the conditions of the room, she just said, " Well, we're getting to remodel that room." Like it was nothing big. More</t>
   </si>
   <si>
+    <t>Dana A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r369715939-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>A D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r299408085-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>..this place is horrible!!  Checked in, paid with cash, and the front desk clerk informed us she had no change but to come back in a few minutes and she'd have our change ready.  We called twice and nothing.  Next morning when we check out, we inform the clerk and he flat out refuses to give us our change claiming the clerk had left him a note informing him that she had already given us our change.  What??  Explained the situation, told him we had attempted to contact the clerk twice, to no avail, and still, this guy refused to give us our change.  Requested our receipt and he offered to take the amount of change owed to us off of our bill 'next time'. Had him put it in writing on our receipt and he refused!!  We got tired of arguing with the guy and just left and we wont be staying here again.  The carpet in our room was nasty and had stains, shower had mold and room reeked of smoke.  Lots of shady people loitering in the parking lot. Motel 6 brand really needs to check up on this place.  There's a Denny's right next door and a Starbucks.  Waitress at Denny's told us police are at this motel everyday responding to disturbances.  Do yourself a favor and stay somewhere else.More</t>
   </si>
   <si>
+    <t>Patrick W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r289940895-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>First room they gave me the door was ajar, condom wrappers on the floor, the smell of pot and a empty package of blunts on the table. Moved me next door. Should have stayed in the first room because this room smelled so bad it made my mouth taste funny. Left at 3:30 am just to get out of there...More</t>
   </si>
   <si>
+    <t>niko n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r273161432-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>that Dude with glasses his name is David he works at the front desk in the evening, let me tell you this guy is a total tumbs down for a. Customer Service b. he is arrogant c. ego driven d. not even qualified to work at the register in a down town low class convenient store. worse of all he is I assume representing the La Quinta Brand and in this location the owner who is a very nice gentleman and so is the entire staff with the exception of that Late Night Shift Dude that is working against all Hospitality Industry Customer Service Etiquette.More</t>
   </si>
   <si>
+    <t>Marie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r223229850-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>I travel solo to Garland quite often, and have been staying here for several years.  When this was a LaQuinta, it was kept clean, the desk staff was friendly and helpful.  Since it changed franchises, the quality has diminished.  Front desk routinely leaves me standing while they have private conversations with friends.  Once the clerk had an unrestrained pit bull behind the desk.  What kind of clientele do they serve that the clerk needs to be protected by an attack dog?  The rooms are now dirtyish and appear unkempt. In fact, during my last stay, housekeeping did not clean my room on the second day.  Having said all that, I am a smoker and few hotels have smoking rooms, so I guess I'll return.  This hotel is somewhat better than others nearby.One positive: I have found no bedbugs and the bed is comfortable. I don't use the internet or eat breakfast in the lobby, so I can't comment on the quality of those amenities.  I use the hotel to shower and sleep and am gone from fairly early morning to late evening. I have been disappointed in the deterioration since the switch to Motel 6.More</t>
   </si>
   <si>
+    <t>someguy g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r211176865-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -414,6 +447,9 @@
     <t>No really if your looking for a quick in &amp; out this is the place came here to stay for the night and was approached 3 times by 3 different women all for the price range of $50 bucks each great bargain not to mention all the thugs and drug dealers who stay here,i mean the staff here was nice threw out the whole day and night and they check you in fast too,guess to get you on yor way to the freak show,do not bring your family here I repeat don't! how the staff even works here at night is horrible? I feel sorry for the guys that work here at night hope there pay is worth it.More</t>
   </si>
   <si>
+    <t>Adrienne Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r208331534-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -429,6 +465,9 @@
     <t>Clean rooms, across the parking lot from Denny's and Grandys convenient location, right off LBJ freeway on the frontage rd can't miss it. Nice staff..willing to accommodate. Will stay again for sure. Can get noisy from the highway traffic but that is not the motels fault. Nice pool. Thank you for the great stay.</t>
   </si>
   <si>
+    <t>Richard B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r198985453-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t xml:space="preserve">I got to sleep just in time for the thugs in room 147 to start beating a woman called the front desk and the bs continued for another 45 minutes so I beat on the wall the thug got pissed off and invited me to meat him out side when I went out he opened the door but wouldn't come out just talking s#*t and went back in and started calling my room and hanging up I called the desk again and they advised me to call the cops I have a pistol I don't call the cops if you do stay here bring your guns it is rough </t>
   </si>
   <si>
+    <t>Nobody150</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r187278896-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -471,6 +513,9 @@
     <t>Terrible unsafe Motel with many unsavory characters lurking in and around.  Woken up at 2:30 a.m. by groups of guys yelling loudly and heard; shoot him, shoot him! Didn't get back to sleep and checked out ahead of schedule the next morning.  Office personel didn't ask or seem to care why I was checking out so earlier.  Room was also filthy and building was in disrepair.More</t>
   </si>
   <si>
+    <t>Chimama1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r174487707-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -492,6 +537,9 @@
     <t>This LaQuinta has been bought by Motel 6 and is now a dirty,nasty,unsafe motel! I always stayed at this location when it was a LaQuinta and decided to try the new Motel 6 arrangement because it is close to my relatives and pet friendly. I am now looking for anothe motel for next year! There was visible dirt on the bed and the room smelled terrible. I had to change rooms when I returned from my relatives about 11PM to avoid the shirtless,drinking men hovering around my room.There were many ladies in shorts and stilletoes paying for rooms with cash, and folks hanging over the balconies yelling and drinking. It was horrible.Please do not waste your money or put yourself or your family in danger by staying here.It used to be a nice place to stay and I am so sorry Motel 6 bought it. The quality has fallen 100%!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r163662205-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -516,6 +564,9 @@
     <t>We stayed here because we were offered a military discount.  Room had a king bed which was very comfortable, room was clean and had no foul smells.  Linens were clean, bathroom were clean.  But to me the most important thing going for this La Quinta location is that the A/C was on prior to our arrival.  Our room was already cool and to me that showed they cared about their future guest.  Our vehicle was not bothered, there was a security looking guy wondering the parking lot which helped.  We did not have the breakfast so I cannot comment on it.  Overall I would stay here again and recommend it to family and friends.More</t>
   </si>
   <si>
+    <t>PBSpeakeasy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r155195606-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -537,6 +588,9 @@
     <t>This was about what I expected. The hotel is located next to a busy freeway on a short one=way street, so getting in and out required a little bit of looping around, but nothing too dramatic. The room itself was very quiet, considering the location. Desk clerk said that they had 24 hour security. I didn't stay up all night to check, but all seemed quiet and nobody messed with us, our stuff, or our car. If you read the reviews of other hotels in this area that seems to be an accomplishment. The room was clean, bathroom was clean, and everything that was supposed to work did. Plenty of parking, shower was good, and the king sized bed was VERY comfortable. The continental breakfast was pretty lame, but that wasn't a big deal for us. TV and remote were good. All in all, a decent place to spend the night.More</t>
   </si>
   <si>
+    <t>bryanm206</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r153854227-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -555,6 +609,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Jamestraveler10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r145673904-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -573,6 +630,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Loyalty84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r144356744-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -627,6 +687,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>FloridaDaytripper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r136760668-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -648,6 +711,9 @@
     <t>We have stayed at this hotel twice in the last month and were very pleased both times.  The rooms were clean and the beds were comfortable. The staff was very friendly too. We had very pleasant stays and enjoyed the convenience of being able to walk to the nearby Denny's and Grandy's restaurants, which were located next door to the hotel. The continental breakfast was better than most of them we have had in this hotel price range, with yogurt, bagels, fruit, and waffles available in addition to the usual muffins and cereal....coffee was good too. We also enjoyed having the Wi-Fi available.  We will definitely be staying there again.More</t>
   </si>
   <si>
+    <t>Terica A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r136466756-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -666,6 +732,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r131107787-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -693,6 +762,9 @@
     <t>05/03/2012</t>
   </si>
   <si>
+    <t>moe40moe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r124866645-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -711,6 +783,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>earmark72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r69892254-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -735,6 +810,9 @@
     <t>This motel had clean rooms, a fair continental breakfast ( yogurt, bagels, hard-boiled eggs, cereal, and apples), and a very friendly check-in staff  who went out of their way to say hello to you  and thank you for patronage. The price for the rooms was about 45$ a night, a deal for the dallas area. The hotel was located off of the interstate loop around Dallas, and while not a horrible area, it was not the prettiest either. The hotel is right next to two family-type restaurants and close to gas stations. If you can figure out the roads, a wal- mart is a five minute drive from the area. Keep in mind this motel does not have internal corridors- all rooms are directly accessible to the outside.  A small clean pool is available for use as well.More</t>
   </si>
   <si>
+    <t>bagladygee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r63099519-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -753,6 +831,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>Lisa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r34621316-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -768,6 +849,9 @@
     <t>Please beware if you stay at this hotel.  My daughter went with her FFA group for their annual convention.  She had all her jewelry stolen that was in her bag.  One of the other  rooms had $40 stolen and some clothing.  They put the do not disturb sign up on the door and came back to discover that one bed had been made up and music playing on the radio.</t>
   </si>
   <si>
+    <t>CyrusCat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r16928443-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -787,6 +871,9 @@
   </si>
   <si>
     <t>La Quinta InnGarland, TX12721 I-635972-271-7581$46.00/nightNo separate charge for pets; cats accepted.Cable TV.  Coffee maker in room; no refrigerator or microwave.  Ice machine in lobby, no on-site laundry.  Free wi-fi connection.  Free breakfast, 7 to 9 am:  toast, bagels, peeled hard boiled eggs, orange juice, coffee, tea, etc.Desk personnel were polite and efficient.  Room was a good size, clean and comfortable.  In the morning we could not get cold water in the bathroom--only hot.  We reported the problem to the desk.  Good wi-fi connection.  I’m not sure the room would be worth the $95/night that is supposed to be the normal rate, but we were certainly happy with it for the price we paid.More</t>
+  </si>
+  <si>
+    <t>Jaime G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r11691332-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -1309,43 +1396,47 @@
       <c r="A2" t="n">
         <v>5197</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>32838</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1357,56 +1448,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5197</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1420,50 +1515,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5197</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169457</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -1483,50 +1582,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5197</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1544,50 +1647,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5197</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169458</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1601,50 +1708,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5197</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>1743</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1658,50 +1769,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5197</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>117263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1713,56 +1828,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5197</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>48147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1780,56 +1899,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5197</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169459</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1847,56 +1970,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5197</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>26210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1916,50 +2043,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5197</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169460</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1983,50 +2114,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5197</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169461</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2040,41 +2175,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5197</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -2103,50 +2242,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5197</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169462</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2168,56 +2311,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5197</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169463</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2241,50 +2388,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5197</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2308,50 +2459,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5197</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169464</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2375,50 +2530,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5197</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169465</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2442,50 +2601,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5197</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>115659</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2509,41 +2672,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5197</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169466</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
@@ -2572,50 +2739,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5197</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -2639,50 +2810,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5197</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2706,50 +2881,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5197</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169467</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2773,50 +2952,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5197</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169468</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2840,48 +3023,52 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5197</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -2905,35 +3092,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5197</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -2941,10 +3132,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2965,51 +3156,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5197</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>169469</v>
+      </c>
+      <c r="C28" t="s">
+        <v>248</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3033,50 +3225,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5197</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>169470</v>
+      </c>
+      <c r="C29" t="s">
+        <v>255</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3100,50 +3296,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5197</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>169471</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3167,41 +3367,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5197</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -3230,50 +3434,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5197</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>169472</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3297,50 +3505,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5197</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>91943</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="J33" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3364,7 +3576,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_584.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_584.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>George C</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r583782420-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>55884</t>
+  </si>
+  <si>
+    <t>107033</t>
+  </si>
+  <si>
+    <t>583782420</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Nicest Hotel Staff</t>
+  </si>
+  <si>
+    <t>Sam and Stacey are awesome...clean..well maintained. Close to everything! Only bad thing cops are at the hotel daily and my son's bike was stolen twice. The pool is awesome and you can walk to movies bowling are great foodMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>motel6garlandtx, Hotel Manager at Motel 6 Garland - Dallas- Northwest Hwy, responded to this reviewResponded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Sam and Stacey are awesome...clean..well maintained. Close to everything! Only bad thing cops are at the hotel daily and my son's bike was stolen twice. The pool is awesome and you can walk to movies bowling are great foodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r575061724-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>575061724</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>We needed a hotel due to some work being done to our home. We just needed somewhere to spend a few nights that wasn't over the top expensive since it was just for sleeping and showering. It met all our needs. We didn't have any issues checking in or out or getting to our room. I heard some yelling one night across at the Denny's but thats not the hotel's fault. Our room was clean. Clean beds and fresh towels. Housekeeping cleaned our rooms daily. I recommend it if you're looking for the basics. This isn't the Hilton so don't come here and complain if you're mad there isn't a mini bar or turn down service. Haha.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>motel6garlandtx, Webmaster at Motel 6 Garland - Dallas- Northwest Hwy, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>We needed a hotel due to some work being done to our home. We just needed somewhere to spend a few nights that wasn't over the top expensive since it was just for sleeping and showering. It met all our needs. We didn't have any issues checking in or out or getting to our room. I heard some yelling one night across at the Denny's but thats not the hotel's fault. Our room was clean. Clean beds and fresh towels. Housekeeping cleaned our rooms daily. I recommend it if you're looking for the basics. This isn't the Hilton so don't come here and complain if you're mad there isn't a mini bar or turn down service. Haha.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r558605738-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
-    <t>55884</t>
-  </si>
-  <si>
-    <t>107033</t>
-  </si>
-  <si>
     <t>558605738</t>
   </si>
   <si>
@@ -192,9 +246,6 @@
     <t>There are four or five low cost hotels with free airport shuttle service.  I have experienced two of them.  Motel 6 was by far the worse of the two.The Internet was poor.  The TV channels were stuck on the alternate language serring (Spanish, descriptive video, no sound at all in some cases).  They did not offer free shampoo/conditioner.  My complaints about the Internet and TV were met with somewhat dismissive attitudes.My pizza leftovers were crawling with ants after a couple of hours.There was no fridge.Stay elsewhere.More</t>
   </si>
   <si>
-    <t>noeleah</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r502213350-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -213,15 +264,9 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Phone didn't work,  took 20 minutes to get warm and then when I was in the shower, it would go from HOT to cold to HOT. Last night my family checked in at 3am we asked for a late check out he 11 is the latest you do and then sent someone at 9am to ask if we were checking out. I am 7 months pregnant and the only reason we came was because my husband's grandma was minutes from dying and he wanted to be here.  We normally stay at the one in Lewisville(10x better) but it was just too far away from what we were needing so we chose this one and when I complain to them she Shrugged her shoulders and said well you should have put a do not disturb sign on your door. And with my having worked in housekeeping before I know that most hotels have a system so that their housekeepers know who's checking out late and who's not.More</t>
   </si>
   <si>
-    <t>Greenturtle15</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r499448260-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -240,7 +285,46 @@
     <t>When we checked in there was renovations going on in the lobby area. The lady who helped us was very nice. We walked into our room and noticed it smelled really bad. We thought maybe it was just because it wasn't super clean. The rooms could use a lot of renovations themselves. We noticed there was a dripping sound coming from the bathroom and when we looked it was dripping from the ceiling above the shower. That's when we knew the bad smell was mold. We told them about it and she gave us a new room. It smelled much better, but still had the old motel smell, but no leaking. We got this motel for a cheap price which is why we chose it, but we would never stay there again. They definitely need some renovations done to the whole complex.More</t>
   </si>
   <si>
-    <t>Jeanne M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r450125505-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>450125505</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget Motel ! </t>
+  </si>
+  <si>
+    <t>I wouldn't stay here being on my own but my company recommended it and it was fairly priced so I gave it a whirl thank goodness I'm only gonna need it for a few days. Driving up i was like "great" it looked run down and extremely out of date, as soon as we walked up to the person at the counter she told us the credit card machine was down. so luckily a coworker had extra cash to pay with we got our rooms and I didn't know what to expect but the room had been remodeled and updated nicely I was very surprised it was clean and modernized the tv could have been bigger but other that that it was ok it's next door to a Denny's and a Grandy's so that was a small plus for breakfast. Like I said I wouldn't have picked it for myself but it was a nice budget motel ! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I wouldn't stay here being on my own but my company recommended it and it was fairly priced so I gave it a whirl thank goodness I'm only gonna need it for a few days. Driving up i was like "great" it looked run down and extremely out of date, as soon as we walked up to the person at the counter she told us the credit card machine was down. so luckily a coworker had extra cash to pay with we got our rooms and I didn't know what to expect but the room had been remodeled and updated nicely I was very surprised it was clean and modernized the tv could have been bigger but other that that it was ok it's next door to a Denny's and a Grandy's so that was a small plus for breakfast. Like I said I wouldn't have picked it for myself but it was a nice budget motel ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r447393838-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>447393838</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Rubbish</t>
+  </si>
+  <si>
+    <t>Friendly staff, rooms supposedly refurbed but botched up. Area total no go, no facilities in rooms, ie fridge, kettle, microwave.  This is not a place I would ever stay again, noisy, ladies of the night use this place as do their pimps. Look elsewhere folks</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r437940532-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -261,9 +345,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Desi-Allen-73</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r395816032-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -285,9 +366,6 @@
     <t>That's the only word I can use to describe this stay. While mine and my husband room was updated, we were unable to take a shower because the knobs to turn on the shower were missing and then the door, looks like it was miss hung and we couldn't shut it properly. Then there was my daughter's room. First, impression. It STUNK to HIGH heaven. The shower knob was extremely hard to turn. They gave it up and decided not taking showers.The room was filthy, cobwebs on the ceiling and garbage in the corners. I mentioned in that front desk and we got a small discount, but when I told the receptionist how bad the conditions of the room, she just said, " Well, we're getting to remodel that room." Like it was nothing big. More</t>
   </si>
   <si>
-    <t>Dana A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r369715939-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -306,7 +384,46 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>A D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r364272212-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>364272212</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Middle class motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This motel is a you get what you pay for. Great thing is that the parking place and all hallways are under video surveillance. Room is cleaned every day. I dont like the fire alarm. If someone activates it by smoking in a room, it scares all the people in every room. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r317903609-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>317903609</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Nice folks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will book this motel again.  Motel 6 staff was friendly and welcoming. I had a very comfortable room. Close to restraunts starbucks and shopping. This motel 6 was very nice, the room was clean and spacious. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r299408085-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -327,9 +444,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>6Team, brand expericened team member at Motel 6 Garland - Dallas- Northwest Hwy, responded to this reviewResponded August 27, 2015</t>
   </si>
   <si>
@@ -339,9 +453,6 @@
     <t>..this place is horrible!!  Checked in, paid with cash, and the front desk clerk informed us she had no change but to come back in a few minutes and she'd have our change ready.  We called twice and nothing.  Next morning when we check out, we inform the clerk and he flat out refuses to give us our change claiming the clerk had left him a note informing him that she had already given us our change.  What??  Explained the situation, told him we had attempted to contact the clerk twice, to no avail, and still, this guy refused to give us our change.  Requested our receipt and he offered to take the amount of change owed to us off of our bill 'next time'. Had him put it in writing on our receipt and he refused!!  We got tired of arguing with the guy and just left and we wont be staying here again.  The carpet in our room was nasty and had stains, shower had mold and room reeked of smoke.  Lots of shady people loitering in the parking lot. Motel 6 brand really needs to check up on this place.  There's a Denny's right next door and a Starbucks.  Waitress at Denny's told us police are at this motel everyday responding to disturbances.  Do yourself a favor and stay somewhere else.More</t>
   </si>
   <si>
-    <t>Patrick W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r289940895-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -369,9 +480,6 @@
     <t>First room they gave me the door was ajar, condom wrappers on the floor, the smell of pot and a empty package of blunts on the table. Moved me next door. Should have stayed in the first room because this room smelled so bad it made my mouth taste funny. Left at 3:30 am just to get out of there...More</t>
   </si>
   <si>
-    <t>niko n</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r273161432-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -399,7 +507,49 @@
     <t>that Dude with glasses his name is David he works at the front desk in the evening, let me tell you this guy is a total tumbs down for a. Customer Service b. he is arrogant c. ego driven d. not even qualified to work at the register in a down town low class convenient store. worse of all he is I assume representing the La Quinta Brand and in this location the owner who is a very nice gentleman and so is the entire staff with the exception of that Late Night Shift Dude that is working against all Hospitality Industry Customer Service Etiquette.More</t>
   </si>
   <si>
-    <t>Marie L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r269826012-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>269826012</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Rude!!!</t>
+  </si>
+  <si>
+    <t>The guy (with the glasses) that works the front desk is very rude to customers. I have heard him on the phone twice speaking to customers and he's extremely rude. He was raising his voice and arguing with people on the phone. He later raised his voice at me as well. He's not very nice or helpful. He's just plain RUDE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Garland - Dallas- Northwest Hwy, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>The guy (with the glasses) that works the front desk is very rude to customers. I have heard him on the phone twice speaking to customers and he's extremely rude. He was raising his voice and arguing with people on the phone. He later raised his voice at me as well. He's not very nice or helpful. He's just plain RUDE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r230958554-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>230958554</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here!!!</t>
+  </si>
+  <si>
+    <t>I made a reservation online for a king size bed, non-smoking with a micro-fridge.I arrived at the front desk 10 minutes before 3 p.m.The clerk asked if I reserved a king size bed with micro-fridge. I agreed.Paid the fee and signed a receipt. I went to the room and upon entering I was met with a musty funky smell. I then turned the air condition on..which worked well. To my surprise. .no micro-fridge. I called the front desk and asked what's up with the amenities and he told me they were renovating. Being that I didnt want to find another motel...I stayed...They need to stop saying they have things they don't. FALSE ADVERTISING. MoreShow less</t>
+  </si>
+  <si>
+    <t>I made a reservation online for a king size bed, non-smoking with a micro-fridge.I arrived at the front desk 10 minutes before 3 p.m.The clerk asked if I reserved a king size bed with micro-fridge. I agreed.Paid the fee and signed a receipt. I went to the room and upon entering I was met with a musty funky smell. I then turned the air condition on..which worked well. To my surprise. .no micro-fridge. I called the front desk and asked what's up with the amenities and he told me they were renovating. Being that I didnt want to find another motel...I stayed...They need to stop saying they have things they don't. FALSE ADVERTISING. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r223229850-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -423,9 +573,6 @@
     <t>I travel solo to Garland quite often, and have been staying here for several years.  When this was a LaQuinta, it was kept clean, the desk staff was friendly and helpful.  Since it changed franchises, the quality has diminished.  Front desk routinely leaves me standing while they have private conversations with friends.  Once the clerk had an unrestrained pit bull behind the desk.  What kind of clientele do they serve that the clerk needs to be protected by an attack dog?  The rooms are now dirtyish and appear unkempt. In fact, during my last stay, housekeeping did not clean my room on the second day.  Having said all that, I am a smoker and few hotels have smoking rooms, so I guess I'll return.  This hotel is somewhat better than others nearby.One positive: I have found no bedbugs and the bed is comfortable. I don't use the internet or eat breakfast in the lobby, so I can't comment on the quality of those amenities.  I use the hotel to shower and sleep and am gone from fairly early morning to late evening. I have been disappointed in the deterioration since the switch to Motel 6.More</t>
   </si>
   <si>
-    <t>someguy g</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r211176865-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -447,9 +594,6 @@
     <t>No really if your looking for a quick in &amp; out this is the place came here to stay for the night and was approached 3 times by 3 different women all for the price range of $50 bucks each great bargain not to mention all the thugs and drug dealers who stay here,i mean the staff here was nice threw out the whole day and night and they check you in fast too,guess to get you on yor way to the freak show,do not bring your family here I repeat don't! how the staff even works here at night is horrible? I feel sorry for the guys that work here at night hope there pay is worth it.More</t>
   </si>
   <si>
-    <t>Adrienne Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r208331534-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -465,7 +609,40 @@
     <t>Clean rooms, across the parking lot from Denny's and Grandys convenient location, right off LBJ freeway on the frontage rd can't miss it. Nice staff..willing to accommodate. Will stay again for sure. Can get noisy from the highway traffic but that is not the motels fault. Nice pool. Thank you for the great stay.</t>
   </si>
   <si>
-    <t>Richard B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r207657723-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>207657723</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>This property requires major attention by the franchise.</t>
+  </si>
+  <si>
+    <t>We have stayed at this property for years, while it was a La Quinta.  While it is not in the greatest part of town, we have always felt safe and it has been well-maintained.  NO MORE.  It is now a Motel 6 and in the 10 months since we stayed here last, it has seriously deteriorated.  Room was dirty - crusted food on the carpet, hair and dust bunnies around the edges of the carpet.  Little ants or tiny roaches in the bathroom.  Strip on the bottom of the door was torn half-off; desk chair had half the upholstery ripped off and ALL the furniture was in terrible shape. Also, I was very concerned about walking my dog outside at night.  Some really tough-looking guys and what I believe were some "working girls" around. And, our non-smoking room REEKED of smoke.   The front desk folks were very nice; the bright spot of the place.  But somebody needs to do some major cleanup.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We have stayed at this property for years, while it was a La Quinta.  While it is not in the greatest part of town, we have always felt safe and it has been well-maintained.  NO MORE.  It is now a Motel 6 and in the 10 months since we stayed here last, it has seriously deteriorated.  Room was dirty - crusted food on the carpet, hair and dust bunnies around the edges of the carpet.  Little ants or tiny roaches in the bathroom.  Strip on the bottom of the door was torn half-off; desk chair had half the upholstery ripped off and ALL the furniture was in terrible shape. Also, I was very concerned about walking my dog outside at night.  Some really tough-looking guys and what I believe were some "working girls" around. And, our non-smoking room REEKED of smoke.   The front desk folks were very nice; the bright spot of the place.  But somebody needs to do some major cleanup.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r199076415-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>199076415</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>So scared, no sleep!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a bad room for the price had the place not been full of thugs! I was expecting a bullet to come through the wall at any time. I opened my door and a cloud of pot smoke came in. My room truly smelled of pot for awhile. The people in the next room were fighting very loudly and it was late! I called the front desk. She was no help at all! This place needs security to clean up the trash. I really felt very unsafe! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r198985453-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -483,9 +660,6 @@
     <t xml:space="preserve">I got to sleep just in time for the thugs in room 147 to start beating a woman called the front desk and the bs continued for another 45 minutes so I beat on the wall the thug got pissed off and invited me to meat him out side when I went out he opened the door but wouldn't come out just talking s#*t and went back in and started calling my room and hanging up I called the desk again and they advised me to call the cops I have a pistol I don't call the cops if you do stay here bring your guns it is rough </t>
   </si>
   <si>
-    <t>Nobody150</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r187278896-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -513,9 +687,6 @@
     <t>Terrible unsafe Motel with many unsavory characters lurking in and around.  Woken up at 2:30 a.m. by groups of guys yelling loudly and heard; shoot him, shoot him! Didn't get back to sleep and checked out ahead of schedule the next morning.  Office personel didn't ask or seem to care why I was checking out so earlier.  Room was also filthy and building was in disrepair.More</t>
   </si>
   <si>
-    <t>Chimama1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r174487707-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -537,7 +708,46 @@
     <t>This LaQuinta has been bought by Motel 6 and is now a dirty,nasty,unsafe motel! I always stayed at this location when it was a LaQuinta and decided to try the new Motel 6 arrangement because it is close to my relatives and pet friendly. I am now looking for anothe motel for next year! There was visible dirt on the bed and the room smelled terrible. I had to change rooms when I returned from my relatives about 11PM to avoid the shirtless,drinking men hovering around my room.There were many ladies in shorts and stilletoes paying for rooms with cash, and folks hanging over the balconies yelling and drinking. It was horrible.Please do not waste your money or put yourself or your family in danger by staying here.It used to be a nice place to stay and I am so sorry Motel 6 bought it. The quality has fallen 100%!More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r169756673-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>169756673</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Select Another Option</t>
+  </si>
+  <si>
+    <t>When we first booked our three rooms, this property was a LaQuinta Inn. When we arrived, the property had been sold to Motel 6.  One of the rooms had filthy carpet, a telephone that was not connected, and a shower that did not work.  The pool was supposed to close at 10:00 p.m. but those using it were still there past midnight.  A call to management was required to stop the noise.  The area in which this property is located is very run down and the motel is as well.  There were dead roaches in one of the rooms and mold was present in the shower. The clientele was not the type in which I would wish to take my family.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>When we first booked our three rooms, this property was a LaQuinta Inn. When we arrived, the property had been sold to Motel 6.  One of the rooms had filthy carpet, a telephone that was not connected, and a shower that did not work.  The pool was supposed to close at 10:00 p.m. but those using it were still there past midnight.  A call to management was required to stop the noise.  The area in which this property is located is very run down and the motel is as well.  There were dead roaches in one of the rooms and mold was present in the shower. The clientele was not the type in which I would wish to take my family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r165051551-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>165051551</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Not A Family Environment</t>
+  </si>
+  <si>
+    <t>I took my wife and kids to Dallas for the weekend.  Thought I'd try staying outside of Dallas and possibly get a cheaper rate.  I did get a cheaper rate and checked into a room that wasn't a double as we expected, and also had a foul cigarette odor so we asked for a new room. Went to the new room after going back to the office AGAIN when the keys didn't work, and witnessed (with my wife and four kids) a "lady of the night" in broad daylight, knocking on the door of the room directly below us.  The key worked this time but I wished that it hadn't.  This room was filthy, had live bugs in the bathroom light fixture, smelled of cigarette, and a condom wrapper in the closet which of course, my five year old daughter found.  Thank GOD she didn't pick it up!  Went back to the office and checked out... later found a better place in Plano!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I took my wife and kids to Dallas for the weekend.  Thought I'd try staying outside of Dallas and possibly get a cheaper rate.  I did get a cheaper rate and checked into a room that wasn't a double as we expected, and also had a foul cigarette odor so we asked for a new room. Went to the new room after going back to the office AGAIN when the keys didn't work, and witnessed (with my wife and four kids) a "lady of the night" in broad daylight, knocking on the door of the room directly below us.  The key worked this time but I wished that it hadn't.  This room was filthy, had live bugs in the bathroom light fixture, smelled of cigarette, and a condom wrapper in the closet which of course, my five year old daughter found.  Thank GOD she didn't pick it up!  Went back to the office and checked out... later found a better place in Plano!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r163662205-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -555,18 +765,9 @@
     <t>We stayed here because we were offered a military discount.  Room had a king bed which was very comfortable, room was clean and had no foul smells.  Linens were clean, bathroom were clean.  But to me the most important thing going for this La Quinta location is that the A/C was on prior to our arrival.  Our room was already cool and to me that showed they cared about their future guest.  Our vehicle was not bothered, there was a security looking guy wondering the parking lot which helped.  We did not have the breakfast so I cannot comment on it.  Overall I would stay here again and recommend it to family and friends.MoreShow less</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>We stayed here because we were offered a military discount.  Room had a king bed which was very comfortable, room was clean and had no foul smells.  Linens were clean, bathroom were clean.  But to me the most important thing going for this La Quinta location is that the A/C was on prior to our arrival.  Our room was already cool and to me that showed they cared about their future guest.  Our vehicle was not bothered, there was a security looking guy wondering the parking lot which helped.  We did not have the breakfast so I cannot comment on it.  Overall I would stay here again and recommend it to family and friends.More</t>
   </si>
   <si>
-    <t>PBSpeakeasy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r155195606-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -588,9 +789,6 @@
     <t>This was about what I expected. The hotel is located next to a busy freeway on a short one=way street, so getting in and out required a little bit of looping around, but nothing too dramatic. The room itself was very quiet, considering the location. Desk clerk said that they had 24 hour security. I didn't stay up all night to check, but all seemed quiet and nobody messed with us, our stuff, or our car. If you read the reviews of other hotels in this area that seems to be an accomplishment. The room was clean, bathroom was clean, and everything that was supposed to work did. Plenty of parking, shower was good, and the king sized bed was VERY comfortable. The continental breakfast was pretty lame, but that wasn't a big deal for us. TV and remote were good. All in all, a decent place to spend the night.More</t>
   </si>
   <si>
-    <t>bryanm206</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r153854227-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -609,7 +807,43 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>Jamestraveler10</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r151035146-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>151035146</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Could be better</t>
+  </si>
+  <si>
+    <t>We had to take this hotel because most of the major hotels close to Dallas Convention Center were full due to the AHR Show to which we were assisting. We stayed 3 nights from sunday Jan. 27 to wednesday Jan. 30, finding that the phone system was down, and always promising to be fixed next day. Which never happens. besides this on wednesday morning also the wi-fi was down. We were 3 people taking 3 separate rooms. We were thinking that La Quinta Inn had a better standard of service. I do not recommend this hotel in particular, and will question the rest of them. Also, the reception smelled very much to smoke.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>We had to take this hotel because most of the major hotels close to Dallas Convention Center were full due to the AHR Show to which we were assisting. We stayed 3 nights from sunday Jan. 27 to wednesday Jan. 30, finding that the phone system was down, and always promising to be fixed next day. Which never happens. besides this on wednesday morning also the wi-fi was down. We were 3 people taking 3 separate rooms. We were thinking that La Quinta Inn had a better standard of service. I do not recommend this hotel in particular, and will question the rest of them. Also, the reception smelled very much to smoke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r147512717-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>147512717</t>
+  </si>
+  <si>
+    <t>12/15/2012</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>Recently spent a couple of nights here.  It is an older hotel and could use a little updating, but it was clean &amp; the staff was friendly &amp; efficient.  We had two adjoining rooms.  Both were clean, but one had a slight stale smoky smell.  (As in it used to be a smoking room, and as is normal in that situation, there is a lingering smell.)  One of the rooms had a mini-fridge and microwave, but the other did not.  The hotel was conveniently located for our purposes, and the price was great.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r145673904-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -630,9 +864,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>Loyalty84</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r144356744-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -669,6 +900,39 @@
     <t>I checked in and Diane was very polite and courteous. Once I was settled into the room, I noticed that the phone wasn't working and the bathtub fixture was disconnected from the wall. The sheets had what appeared to be a black marker stain on them. Since it was a double bed I slept in the other bed, no problem.I sprain my index finger trying to kill a cricket (no fault of the hotel)! At checkout I told the lady about the phone and the shower, they already knew as I reported it to Diane the night before. I was compensated for the inconvenience. The staff was very polite and professional. Great customer service, more improvement on the rooms.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r142131730-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>142131730</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>Great Experience As Always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was clean and comfortable.  The shower had a lot of pressure and was very relaxing.  Each staff member I encountered greeted me with a smile and a kind word.  I have found that this is a typical experience at La Quinta.  I have been staying at La Quinta for about six years now.  I don't even look at other hotels when I travel.  There have been times when I've needed something extra, or something wasn't right.  It has always been immediately resolved for me.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r141542860-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>141542860</t>
+  </si>
+  <si>
+    <t>09/28/2012</t>
+  </si>
+  <si>
+    <t>Great Place To Stay</t>
+  </si>
+  <si>
+    <t>This was my first time at a La Quinta. It was for business and got a corporate rate. The room was big and cozy. Had wireless computer accessibllity. The breakfast was fresh and tasteful. Only thing I missed was not having a small refrigerator to keep cold drinks. I would stay here again if I come to Dallas area again.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r140090943-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -684,12 +948,6 @@
     <t>we stayed at the La Quinta in garland tx, and all i have to say it was an awesome experience, the staff was very friendly the room was very clean, we stayed in the courtyard area and it was very peaceful and quiet, i would easily stay again... 2 thumbs up..</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
-    <t>FloridaDaytripper</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r136760668-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -711,9 +969,6 @@
     <t>We have stayed at this hotel twice in the last month and were very pleased both times.  The rooms were clean and the beds were comfortable. The staff was very friendly too. We had very pleasant stays and enjoyed the convenience of being able to walk to the nearby Denny's and Grandy's restaurants, which were located next door to the hotel. The continental breakfast was better than most of them we have had in this hotel price range, with yogurt, bagels, fruit, and waffles available in addition to the usual muffins and cereal....coffee was good too. We also enjoyed having the Wi-Fi available.  We will definitely be staying there again.More</t>
   </si>
   <si>
-    <t>Terica A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r136466756-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -732,7 +987,37 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>A La Quinta traveler</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r131455254-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>131455254</t>
+  </si>
+  <si>
+    <t>06/06/2012</t>
+  </si>
+  <si>
+    <t>LaQuinta wonderful hotel for family and dogs!!!</t>
+  </si>
+  <si>
+    <t>Be careful what you print.  Take it up with me when it comes to my dog (owner)  Call the police wow!!!!  You walked away like everything was o.k.  We will leave it at that! Do me a favor leave Laquinta out of this situation. Wonderful place  friendly staff, can't ask for a better hotel to live at.If it is business or pleasure!! I rate this hotel a 10++.  I would also like to add the security guard who told you where we was staying that particular night, and this have happen before I hope he got brownie points.  You don't know me or my dog and again watch what you print... You have my cell#.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Be careful what you print.  Take it up with me when it comes to my dog (owner)  Call the police wow!!!!  You walked away like everything was o.k.  We will leave it at that! Do me a favor leave Laquinta out of this situation. Wonderful place  friendly staff, can't ask for a better hotel to live at.If it is business or pleasure!! I rate this hotel a 10++.  I would also like to add the security guard who told you where we was staying that particular night, and this have happen before I hope he got brownie points.  You don't know me or my dog and again watch what you print... You have my cell#.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r131374135-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>131374135</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>June 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r131107787-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -747,9 +1032,6 @@
     <t>MoreShow less</t>
   </si>
   <si>
-    <t>May 2012</t>
-  </si>
-  <si>
     <t>More</t>
   </si>
   <si>
@@ -762,9 +1044,6 @@
     <t>05/03/2012</t>
   </si>
   <si>
-    <t>moe40moe</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r124866645-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -783,7 +1062,43 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>earmark72</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r116696032-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>116696032</t>
+  </si>
+  <si>
+    <t>08/14/2011</t>
+  </si>
+  <si>
+    <t>Got my money's worth!!!</t>
+  </si>
+  <si>
+    <t>Clean room,no bedbugs,dog welcome,excellent cleaning staff,friendly front desk staff...I couldn't have been more pleased! Security guard now..I will always stay there!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r80756882-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>80756882</t>
+  </si>
+  <si>
+    <t>09/23/2010</t>
+  </si>
+  <si>
+    <t>Excellent value in the Dallas suburbs</t>
+  </si>
+  <si>
+    <t>The La Quinta off LBJ Freeway is set far enough back from the road that most rooms are quite quiet.  The room was spacious with a decent table and very comfortable bed.  Breakfast was excellent considering the overall room rate and included yogurts and fruit as well as the more normal budget motel fare.  The pool was compact but clean (and open).  The surrounding area is OK if not particularly welcoming to pedestrians.  My only complaint was that the wireless Internet wouldn't allow me to connect.Tip: To get to central Dallas, drive 3 miles East on LBJ Freeway to the LBJ/Skillman DART rail stop (blue line).  A $4 ticket will then allow unlimited travel on most parts of the system, and it's much easier than parking in central Dallas.  If you want to see more of the city, you can take Bus line 60 from the DART station to the centre: it stops right outside Fair Park.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>The La Quinta off LBJ Freeway is set far enough back from the road that most rooms are quite quiet.  The room was spacious with a decent table and very comfortable bed.  Breakfast was excellent considering the overall room rate and included yogurts and fruit as well as the more normal budget motel fare.  The pool was compact but clean (and open).  The surrounding area is OK if not particularly welcoming to pedestrians.  My only complaint was that the wireless Internet wouldn't allow me to connect.Tip: To get to central Dallas, drive 3 miles East on LBJ Freeway to the LBJ/Skillman DART rail stop (blue line).  A $4 ticket will then allow unlimited travel on most parts of the system, and it's much easier than parking in central Dallas.  If you want to see more of the city, you can take Bus line 60 from the DART station to the centre: it stops right outside Fair Park.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r69892254-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -804,15 +1119,9 @@
     <t>July 2010</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>This motel had clean rooms, a fair continental breakfast ( yogurt, bagels, hard-boiled eggs, cereal, and apples), and a very friendly check-in staff  who went out of their way to say hello to you  and thank you for patronage. The price for the rooms was about 45$ a night, a deal for the dallas area. The hotel was located off of the interstate loop around Dallas, and while not a horrible area, it was not the prettiest either. The hotel is right next to two family-type restaurants and close to gas stations. If you can figure out the roads, a wal- mart is a five minute drive from the area. Keep in mind this motel does not have internal corridors- all rooms are directly accessible to the outside.  A small clean pool is available for use as well.More</t>
   </si>
   <si>
-    <t>bagladygee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r63099519-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -831,9 +1140,6 @@
     <t>April 2010</t>
   </si>
   <si>
-    <t>Lisa S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r34621316-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
   </si>
   <si>
@@ -849,7 +1155,40 @@
     <t>Please beware if you stay at this hotel.  My daughter went with her FFA group for their annual convention.  She had all her jewelry stolen that was in her bag.  One of the other  rooms had $40 stolen and some clothing.  They put the do not disturb sign up on the door and came back to discover that one bed had been made up and music playing on the radio.</t>
   </si>
   <si>
-    <t>CyrusCat</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r21407299-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>21407299</t>
+  </si>
+  <si>
+    <t>10/30/2008</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for three nights.  The room was clean and had everything we needed (including the microwave and fridge we had requested).  The staff was very friendly and made sure the room was available for an early check-in.  They offer free continental breakfast and complimentary toiletries in case you forgot to pack something (which I did).  I was a little scared after reading the other reviews, but it turned out to be a good experience.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r20590872-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>20590872</t>
+  </si>
+  <si>
+    <t>10/03/2008</t>
+  </si>
+  <si>
+    <t>Terrible Security</t>
+  </si>
+  <si>
+    <t>This hotel is located right off the highway in a bad part of town. During my husband’s stay of only 1 night, our car was broken into – the passenger window was shattered and our GPS stolen. Any decent hotel SHOULD do their best to ensure the safety of their guests (and their guests’ property) while they are under the care of the hotel. La Quinta does NOT. They have terrible security, and make no effort to keep their parking lot safe. The manager still has not returned my calls. In addition, the room, which was supposed to be a “business suite,” was filthy. The room was also supposed to be non-smoking, yet it smelled like smoke and there was an ashtray in the room. It would have been far better (and more cost effective) to pay more for a nicer hotel than to go through this hassle and pay for all the damages our car incurred, including the cost of vacuuming out all the glass and replacing our GPS. I would never recommend anyone stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is located right off the highway in a bad part of town. During my husband’s stay of only 1 night, our car was broken into – the passenger window was shattered and our GPS stolen. Any decent hotel SHOULD do their best to ensure the safety of their guests (and their guests’ property) while they are under the care of the hotel. La Quinta does NOT. They have terrible security, and make no effort to keep their parking lot safe. The manager still has not returned my calls. In addition, the room, which was supposed to be a “business suite,” was filthy. The room was also supposed to be non-smoking, yet it smelled like smoke and there was an ashtray in the room. It would have been far better (and more cost effective) to pay more for a nicer hotel than to go through this hassle and pay for all the damages our car incurred, including the cost of vacuuming out all the glass and replacing our GPS. I would never recommend anyone stay here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r16928443-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -871,9 +1210,6 @@
   </si>
   <si>
     <t>La Quinta InnGarland, TX12721 I-635972-271-7581$46.00/nightNo separate charge for pets; cats accepted.Cable TV.  Coffee maker in room; no refrigerator or microwave.  Ice machine in lobby, no on-site laundry.  Free wi-fi connection.  Free breakfast, 7 to 9 am:  toast, bagels, peeled hard boiled eggs, orange juice, coffee, tea, etc.Desk personnel were polite and efficient.  Room was a good size, clean and comfortable.  In the morning we could not get cold water in the bathroom--only hot.  We reported the problem to the desk.  Good wi-fi connection.  I’m not sure the room would be worth the $95/night that is supposed to be the normal rate, but we were certainly happy with it for the price we paid.More</t>
-  </si>
-  <si>
-    <t>Jaime G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d107033-r11691332-Motel_6_Garland_Dallas_Northwest_Hwy-Garland_Texas.html</t>
@@ -1396,47 +1732,43 @@
       <c r="A2" t="n">
         <v>5197</v>
       </c>
-      <c r="B2" t="n">
-        <v>32838</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1448,260 +1780,254 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5197</v>
       </c>
-      <c r="B3" t="n">
-        <v>169456</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5197</v>
       </c>
-      <c r="B4" t="n">
-        <v>169457</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5197</v>
       </c>
-      <c r="B5" t="n">
-        <v>3900</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5197</v>
       </c>
-      <c r="B6" t="n">
-        <v>169458</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
       <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1715,47 +2041,43 @@
       <c r="A7" t="n">
         <v>5197</v>
       </c>
-      <c r="B7" t="n">
-        <v>1743</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>93</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1769,54 +2091,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5197</v>
       </c>
-      <c r="B8" t="n">
-        <v>117263</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>101</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>102</v>
-      </c>
-      <c r="O8" t="s">
-        <v>103</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1827,341 +2145,285 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>104</v>
-      </c>
-      <c r="X8" t="s">
-        <v>105</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5197</v>
       </c>
-      <c r="B9" t="n">
-        <v>48147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>113</v>
-      </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>114</v>
-      </c>
-      <c r="X9" t="s">
-        <v>115</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5197</v>
       </c>
-      <c r="B10" t="n">
-        <v>169459</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>124</v>
-      </c>
-      <c r="X10" t="s">
-        <v>125</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5197</v>
       </c>
-      <c r="B11" t="n">
-        <v>26210</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5197</v>
       </c>
-      <c r="B12" t="n">
-        <v>169460</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5197</v>
       </c>
-      <c r="B13" t="n">
-        <v>169461</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2175,121 +2437,111 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5197</v>
       </c>
-      <c r="B14" t="n">
-        <v>1369</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>142</v>
+      </c>
+      <c r="X14" t="s">
+        <v>143</v>
+      </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5197</v>
       </c>
-      <c r="B15" t="n">
-        <v>169462</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2297,232 +2549,206 @@
       <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5197</v>
       </c>
-      <c r="B16" t="n">
-        <v>169463</v>
-      </c>
-      <c r="C16" t="s">
-        <v>165</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
         <v>4</v>
       </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5197</v>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>180</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5197</v>
       </c>
-      <c r="B18" t="n">
-        <v>169464</v>
-      </c>
-      <c r="C18" t="s">
-        <v>182</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>188</v>
-      </c>
-      <c r="O18" t="s">
-        <v>65</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
       <c r="P18" t="n">
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2530,70 +2756,62 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5197</v>
       </c>
-      <c r="B19" t="n">
-        <v>169465</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2601,70 +2819,66 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5197</v>
       </c>
-      <c r="B20" t="n">
-        <v>115659</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2672,137 +2886,123 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5197</v>
       </c>
-      <c r="B21" t="n">
-        <v>169466</v>
-      </c>
-      <c r="C21" t="s">
-        <v>204</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5197</v>
       </c>
-      <c r="B22" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>173</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="n">
         <v>3</v>
       </c>
-      <c r="N22" t="s">
-        <v>215</v>
-      </c>
-      <c r="O22" t="s">
-        <v>103</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
         <v>2</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2810,70 +3010,62 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5197</v>
       </c>
-      <c r="B23" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>173</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>222</v>
-      </c>
-      <c r="O23" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2881,70 +3073,62 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5197</v>
       </c>
-      <c r="B24" t="n">
-        <v>169467</v>
-      </c>
-      <c r="C24" t="s">
-        <v>223</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>229</v>
-      </c>
-      <c r="O24" t="s">
-        <v>103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2952,139 +3136,137 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5197</v>
       </c>
-      <c r="B25" t="n">
-        <v>169468</v>
-      </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>221</v>
+      </c>
       <c r="Y25" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5197</v>
       </c>
-      <c r="B26" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C26" t="s">
-        <v>238</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
-      </c>
-      <c r="K26" t="s"/>
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
       <c r="L26" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3092,132 +3274,133 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5197</v>
       </c>
-      <c r="B27" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C27" t="s">
-        <v>238</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
-      </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>234</v>
+      </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5197</v>
       </c>
-      <c r="B28" t="n">
-        <v>169469</v>
-      </c>
-      <c r="C28" t="s">
-        <v>248</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3225,66 +3408,62 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5197</v>
       </c>
-      <c r="B29" t="n">
-        <v>169470</v>
-      </c>
-      <c r="C29" t="s">
-        <v>255</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
         <v>4</v>
       </c>
-      <c r="N29" t="s">
-        <v>261</v>
-      </c>
-      <c r="O29" t="s">
-        <v>262</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3296,70 +3475,66 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5197</v>
       </c>
-      <c r="B30" t="n">
-        <v>169471</v>
-      </c>
-      <c r="C30" t="s">
-        <v>264</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3367,66 +3542,66 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5197</v>
       </c>
-      <c r="B31" t="n">
-        <v>2379</v>
-      </c>
-      <c r="C31" t="s">
-        <v>271</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3434,57 +3609,53 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5197</v>
       </c>
-      <c r="B32" t="n">
-        <v>169472</v>
-      </c>
-      <c r="C32" t="s">
-        <v>277</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
         <v>3</v>
@@ -3493,11 +3664,11 @@
         <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3505,70 +3676,66 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5197</v>
       </c>
-      <c r="B33" t="n">
-        <v>91943</v>
-      </c>
-      <c r="C33" t="s">
-        <v>285</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
         <v>3</v>
       </c>
       <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
         <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3576,7 +3743,1441 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" t="s">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>283</v>
+      </c>
+      <c r="J35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s">
+        <v>286</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K36" t="s">
         <v>290</v>
+      </c>
+      <c r="L36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>292</v>
+      </c>
+      <c r="O36" t="s">
+        <v>102</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" t="s">
+        <v>301</v>
+      </c>
+      <c r="K38" t="s">
+        <v>302</v>
+      </c>
+      <c r="L38" t="s">
+        <v>303</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>304</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>304</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" t="s">
+        <v>312</v>
+      </c>
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s">
+        <v>314</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>315</v>
+      </c>
+      <c r="O40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>318</v>
+      </c>
+      <c r="J41" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" t="s">
+        <v>320</v>
+      </c>
+      <c r="L41" t="s">
+        <v>321</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>322</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J42" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" t="s">
+        <v>326</v>
+      </c>
+      <c r="L42" t="s">
+        <v>327</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>328</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>331</v>
+      </c>
+      <c r="J43" t="s">
+        <v>332</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>333</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>328</v>
+      </c>
+      <c r="O45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>343</v>
+      </c>
+      <c r="J46" t="s">
+        <v>344</v>
+      </c>
+      <c r="K46" t="s">
+        <v>345</v>
+      </c>
+      <c r="L46" t="s">
+        <v>346</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" t="s">
+        <v>128</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>349</v>
+      </c>
+      <c r="J47" t="s">
+        <v>350</v>
+      </c>
+      <c r="K47" t="s">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s">
+        <v>352</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>353</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>355</v>
+      </c>
+      <c r="J48" t="s">
+        <v>356</v>
+      </c>
+      <c r="K48" t="s">
+        <v>357</v>
+      </c>
+      <c r="L48" t="s">
+        <v>358</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>359</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>362</v>
+      </c>
+      <c r="J49" t="s">
+        <v>363</v>
+      </c>
+      <c r="K49" t="s">
+        <v>364</v>
+      </c>
+      <c r="L49" t="s">
+        <v>365</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>366</v>
+      </c>
+      <c r="O49" t="s">
+        <v>135</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>373</v>
+      </c>
+      <c r="O50" t="s">
+        <v>128</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J51" t="s">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s">
+        <v>377</v>
+      </c>
+      <c r="L51" t="s">
+        <v>378</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>384</v>
+      </c>
+      <c r="O52" t="s">
+        <v>135</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>385</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>388</v>
+      </c>
+      <c r="L53" t="s">
+        <v>389</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>391</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>392</v>
+      </c>
+      <c r="J54" t="s">
+        <v>393</v>
+      </c>
+      <c r="K54" t="s">
+        <v>394</v>
+      </c>
+      <c r="L54" t="s">
+        <v>395</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>396</v>
+      </c>
+      <c r="O54" t="s">
+        <v>135</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>398</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s">
+        <v>402</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>403</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
